--- a/app/data/hr_main.xlsx
+++ b/app/data/hr_main.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4734,6 +4734,8686 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>0.967</v>
+      </c>
+      <c r="C142">
+        <v>0.876</v>
+      </c>
+      <c r="D142">
+        <v>1.068</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>0.898</v>
+      </c>
+      <c r="C143">
+        <v>0.739</v>
+      </c>
+      <c r="D143">
+        <v>1.092</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>0.915</v>
+      </c>
+      <c r="C144">
+        <v>0.859</v>
+      </c>
+      <c r="D144">
+        <v>0.974</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>0.774</v>
+      </c>
+      <c r="C145">
+        <v>0.705</v>
+      </c>
+      <c r="D145">
+        <v>0.85</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B146">
+        <v>1.226</v>
+      </c>
+      <c r="C146">
+        <v>1.036</v>
+      </c>
+      <c r="D146">
+        <v>1.451</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>1.28</v>
+      </c>
+      <c r="C147">
+        <v>1.031</v>
+      </c>
+      <c r="D147">
+        <v>1.589</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>0.695</v>
+      </c>
+      <c r="C148">
+        <v>0.427</v>
+      </c>
+      <c r="D148">
+        <v>1.129</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>1.057</v>
+      </c>
+      <c r="C149">
+        <v>0.719</v>
+      </c>
+      <c r="D149">
+        <v>1.555</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>2.297</v>
+      </c>
+      <c r="C150">
+        <v>2.198</v>
+      </c>
+      <c r="D150">
+        <v>2.401</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>2.405</v>
+      </c>
+      <c r="C151">
+        <v>2.277</v>
+      </c>
+      <c r="D151">
+        <v>2.54</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>0.946</v>
+      </c>
+      <c r="C152">
+        <v>0.895</v>
+      </c>
+      <c r="D152">
+        <v>1.001</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>0.968</v>
+      </c>
+      <c r="C153">
+        <v>0.897</v>
+      </c>
+      <c r="D153">
+        <v>1.045</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>0.881</v>
+      </c>
+      <c r="C154">
+        <v>0.827</v>
+      </c>
+      <c r="D154">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="C155">
+        <v>0.733</v>
+      </c>
+      <c r="D155">
+        <v>0.9</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>0.952</v>
+      </c>
+      <c r="C156">
+        <v>0.89</v>
+      </c>
+      <c r="D156">
+        <v>1.018</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>0.988</v>
+      </c>
+      <c r="C157">
+        <v>0.905</v>
+      </c>
+      <c r="D157">
+        <v>1.078</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>1.045</v>
+      </c>
+      <c r="C158">
+        <v>0.919</v>
+      </c>
+      <c r="D158">
+        <v>1.188</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>1.02</v>
+      </c>
+      <c r="C159">
+        <v>0.868</v>
+      </c>
+      <c r="D159">
+        <v>1.199</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>0.372</v>
+      </c>
+      <c r="C160">
+        <v>0.278</v>
+      </c>
+      <c r="D160">
+        <v>0.499</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>0.092</v>
+      </c>
+      <c r="C161">
+        <v>0.051</v>
+      </c>
+      <c r="D161">
+        <v>0.166</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>0.978</v>
+      </c>
+      <c r="C162">
+        <v>0.91</v>
+      </c>
+      <c r="D162">
+        <v>1.05</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>1.003</v>
+      </c>
+      <c r="C163">
+        <v>0.889</v>
+      </c>
+      <c r="D163">
+        <v>1.131</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>0.999</v>
+      </c>
+      <c r="C164">
+        <v>0.926</v>
+      </c>
+      <c r="D164">
+        <v>1.078</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>0.967</v>
+      </c>
+      <c r="C165">
+        <v>0.828</v>
+      </c>
+      <c r="D165">
+        <v>1.129</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>1.302</v>
+      </c>
+      <c r="C166">
+        <v>1.211</v>
+      </c>
+      <c r="D166">
+        <v>1.399</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>1.567</v>
+      </c>
+      <c r="C167">
+        <v>1.382</v>
+      </c>
+      <c r="D167">
+        <v>1.777</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>0.865</v>
+      </c>
+      <c r="C168">
+        <v>0.793</v>
+      </c>
+      <c r="D168">
+        <v>0.944</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>1.137</v>
+      </c>
+      <c r="C169">
+        <v>0.986</v>
+      </c>
+      <c r="D169">
+        <v>1.311</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>0.949</v>
+      </c>
+      <c r="C170">
+        <v>0.802</v>
+      </c>
+      <c r="D170">
+        <v>1.123</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>1.191</v>
+      </c>
+      <c r="C171">
+        <v>0.847</v>
+      </c>
+      <c r="D171">
+        <v>1.675</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>1.73</v>
+      </c>
+      <c r="C172">
+        <v>1.135</v>
+      </c>
+      <c r="D172">
+        <v>2.635</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>2.222</v>
+      </c>
+      <c r="C173">
+        <v>1.035</v>
+      </c>
+      <c r="D173">
+        <v>4.768</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>0.556</v>
+      </c>
+      <c r="C174">
+        <v>0.529</v>
+      </c>
+      <c r="D174">
+        <v>0.584</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="C175">
+        <v>0.526</v>
+      </c>
+      <c r="D175">
+        <v>0.604</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>0.918</v>
+      </c>
+      <c r="C176">
+        <v>0.883</v>
+      </c>
+      <c r="D176">
+        <v>0.954</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>1.019</v>
+      </c>
+      <c r="C177">
+        <v>0.964</v>
+      </c>
+      <c r="D177">
+        <v>1.076</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>2.492</v>
+      </c>
+      <c r="C178">
+        <v>2.341</v>
+      </c>
+      <c r="D178">
+        <v>2.652</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>3.41</v>
+      </c>
+      <c r="C179">
+        <v>3.126</v>
+      </c>
+      <c r="D179">
+        <v>3.72</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>0.885</v>
+      </c>
+      <c r="C180">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="D180">
+        <v>0.969</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>1.027</v>
+      </c>
+      <c r="C181">
+        <v>0.893</v>
+      </c>
+      <c r="D181">
+        <v>1.182</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="C182">
+        <v>0.863</v>
+      </c>
+      <c r="D182">
+        <v>1.012</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>1.183</v>
+      </c>
+      <c r="C183">
+        <v>1.044</v>
+      </c>
+      <c r="D183">
+        <v>1.34</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>0.849</v>
+      </c>
+      <c r="C184">
+        <v>0.769</v>
+      </c>
+      <c r="D184">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>1.256</v>
+      </c>
+      <c r="C185">
+        <v>1.054</v>
+      </c>
+      <c r="D185">
+        <v>1.498</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>1.24</v>
+      </c>
+      <c r="C186">
+        <v>0.77</v>
+      </c>
+      <c r="D186">
+        <v>1.996</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>1.435</v>
+      </c>
+      <c r="C187">
+        <v>0.78</v>
+      </c>
+      <c r="D187">
+        <v>2.641</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>0.805</v>
+      </c>
+      <c r="C188">
+        <v>0.732</v>
+      </c>
+      <c r="D188">
+        <v>0.886</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>0.92</v>
+      </c>
+      <c r="C189">
+        <v>0.759</v>
+      </c>
+      <c r="D189">
+        <v>1.114</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>0.647</v>
+      </c>
+      <c r="C190">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D190">
+        <v>0.743</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>0.779</v>
+      </c>
+      <c r="C191">
+        <v>0.603</v>
+      </c>
+      <c r="D191">
+        <v>1.007</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>0.612</v>
+      </c>
+      <c r="C192">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="D192">
+        <v>0.671</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>0.598</v>
+      </c>
+      <c r="C193">
+        <v>0.521</v>
+      </c>
+      <c r="D193">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>0.837</v>
+      </c>
+      <c r="C194">
+        <v>0.743</v>
+      </c>
+      <c r="D194">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>0.715</v>
+      </c>
+      <c r="C195">
+        <v>0.611</v>
+      </c>
+      <c r="D195">
+        <v>0.836</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>0.355</v>
+      </c>
+      <c r="C196">
+        <v>0.252</v>
+      </c>
+      <c r="D196">
+        <v>0.501</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>0.277</v>
+      </c>
+      <c r="C197">
+        <v>0.179</v>
+      </c>
+      <c r="D197">
+        <v>0.429</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>0.947</v>
+      </c>
+      <c r="C198">
+        <v>0.585</v>
+      </c>
+      <c r="D198">
+        <v>1.535</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>0.612</v>
+      </c>
+      <c r="C199">
+        <v>0.317</v>
+      </c>
+      <c r="D199">
+        <v>1.181</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>0.838</v>
+      </c>
+      <c r="C200">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="D200">
+        <v>1.014</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>0.628</v>
+      </c>
+      <c r="C201">
+        <v>0.477</v>
+      </c>
+      <c r="D201">
+        <v>0.826</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>0.467</v>
+      </c>
+      <c r="C202">
+        <v>0.269</v>
+      </c>
+      <c r="D202">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>0.435</v>
+      </c>
+      <c r="C203">
+        <v>0.214</v>
+      </c>
+      <c r="D203">
+        <v>0.881</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>0.903</v>
+      </c>
+      <c r="C204">
+        <v>0.87</v>
+      </c>
+      <c r="D204">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>0.844</v>
+      </c>
+      <c r="C205">
+        <v>0.804</v>
+      </c>
+      <c r="D205">
+        <v>0.887</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>0.948</v>
+      </c>
+      <c r="C206">
+        <v>0.861</v>
+      </c>
+      <c r="D206">
+        <v>1.044</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>0.899</v>
+      </c>
+      <c r="C207">
+        <v>0.785</v>
+      </c>
+      <c r="D207">
+        <v>1.031</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>0.829</v>
+      </c>
+      <c r="C208">
+        <v>0.754</v>
+      </c>
+      <c r="D208">
+        <v>0.911</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>0.781</v>
+      </c>
+      <c r="C209">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="D209">
+        <v>0.892</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>1.013</v>
+      </c>
+      <c r="C210">
+        <v>0.909</v>
+      </c>
+      <c r="D210">
+        <v>1.13</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B211">
+        <v>0.953</v>
+      </c>
+      <c r="C211">
+        <v>0.831</v>
+      </c>
+      <c r="D211">
+        <v>1.092</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="C212">
+        <v>0.708</v>
+      </c>
+      <c r="D212">
+        <v>0.922</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>0.715</v>
+      </c>
+      <c r="C213">
+        <v>0.601</v>
+      </c>
+      <c r="D213">
+        <v>0.852</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>0.912</v>
+      </c>
+      <c r="C214">
+        <v>0.429</v>
+      </c>
+      <c r="D214">
+        <v>1.939</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="C215">
+        <v>0.328</v>
+      </c>
+      <c r="D215">
+        <v>2.028</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>0.986</v>
+      </c>
+      <c r="C216">
+        <v>0.93</v>
+      </c>
+      <c r="D216">
+        <v>1.046</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>0.944</v>
+      </c>
+      <c r="C217">
+        <v>0.866</v>
+      </c>
+      <c r="D217">
+        <v>1.029</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>1.16</v>
+      </c>
+      <c r="C218">
+        <v>0.978</v>
+      </c>
+      <c r="D218">
+        <v>1.376</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>1.125</v>
+      </c>
+      <c r="C219">
+        <v>0.863</v>
+      </c>
+      <c r="D219">
+        <v>1.467</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>1.074</v>
+      </c>
+      <c r="C220">
+        <v>0.908</v>
+      </c>
+      <c r="D220">
+        <v>1.271</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>1.104</v>
+      </c>
+      <c r="C221">
+        <v>0.85</v>
+      </c>
+      <c r="D221">
+        <v>1.432</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>0.526</v>
+      </c>
+      <c r="C222">
+        <v>0.369</v>
+      </c>
+      <c r="D222">
+        <v>0.749</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>0.375</v>
+      </c>
+      <c r="C223">
+        <v>0.23</v>
+      </c>
+      <c r="D223">
+        <v>0.61</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>0.829</v>
+      </c>
+      <c r="C224">
+        <v>0.597</v>
+      </c>
+      <c r="D224">
+        <v>1.152</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>0.702</v>
+      </c>
+      <c r="C225">
+        <v>0.431</v>
+      </c>
+      <c r="D225">
+        <v>1.142</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>0.416</v>
+      </c>
+      <c r="C226">
+        <v>0.14</v>
+      </c>
+      <c r="D226">
+        <v>1.231</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>0.19</v>
+      </c>
+      <c r="C227">
+        <v>0.036</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>1.601</v>
+      </c>
+      <c r="C228">
+        <v>0.738</v>
+      </c>
+      <c r="D228">
+        <v>3.473</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>0.839</v>
+      </c>
+      <c r="C229">
+        <v>0.279</v>
+      </c>
+      <c r="D229">
+        <v>2.523</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>1.181</v>
+      </c>
+      <c r="C230">
+        <v>0.715</v>
+      </c>
+      <c r="D230">
+        <v>1.951</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>0.614</v>
+      </c>
+      <c r="C231">
+        <v>0.29</v>
+      </c>
+      <c r="D231">
+        <v>1.299</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>0.291</v>
+      </c>
+      <c r="C232">
+        <v>0.064</v>
+      </c>
+      <c r="D232">
+        <v>1.328</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>0.27</v>
+      </c>
+      <c r="C233">
+        <v>0.034</v>
+      </c>
+      <c r="D233">
+        <v>2.13</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>0.998</v>
+      </c>
+      <c r="C234">
+        <v>0.919</v>
+      </c>
+      <c r="D234">
+        <v>1.083</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>0.879</v>
+      </c>
+      <c r="C235">
+        <v>0.792</v>
+      </c>
+      <c r="D235">
+        <v>0.976</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>1.143</v>
+      </c>
+      <c r="C236">
+        <v>0.981</v>
+      </c>
+      <c r="D236">
+        <v>1.331</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>0.927</v>
+      </c>
+      <c r="C237">
+        <v>0.753</v>
+      </c>
+      <c r="D237">
+        <v>1.14</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>0.894</v>
+      </c>
+      <c r="C238">
+        <v>0.704</v>
+      </c>
+      <c r="D238">
+        <v>1.135</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>0.863</v>
+      </c>
+      <c r="C239">
+        <v>0.641</v>
+      </c>
+      <c r="D239">
+        <v>1.162</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>0.855</v>
+      </c>
+      <c r="C240">
+        <v>0.679</v>
+      </c>
+      <c r="D240">
+        <v>1.078</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="C241">
+        <v>0.52</v>
+      </c>
+      <c r="D241">
+        <v>0.924</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>0.999</v>
+      </c>
+      <c r="C242">
+        <v>0.698</v>
+      </c>
+      <c r="D242">
+        <v>1.431</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>0.775</v>
+      </c>
+      <c r="C243">
+        <v>0.442</v>
+      </c>
+      <c r="D243">
+        <v>1.358</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>0.424</v>
+      </c>
+      <c r="C244">
+        <v>0.055</v>
+      </c>
+      <c r="D244">
+        <v>3.259</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>1.053</v>
+      </c>
+      <c r="C246">
+        <v>0.924</v>
+      </c>
+      <c r="D246">
+        <v>1.201</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>0.954</v>
+      </c>
+      <c r="C247">
+        <v>0.801</v>
+      </c>
+      <c r="D247">
+        <v>1.137</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>1.069</v>
+      </c>
+      <c r="C248">
+        <v>0.798</v>
+      </c>
+      <c r="D248">
+        <v>1.433</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>0.973</v>
+      </c>
+      <c r="C249">
+        <v>0.653</v>
+      </c>
+      <c r="D249">
+        <v>1.448</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>1.226</v>
+      </c>
+      <c r="C250">
+        <v>0.862</v>
+      </c>
+      <c r="D250">
+        <v>1.743</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>1.205</v>
+      </c>
+      <c r="C251">
+        <v>0.751</v>
+      </c>
+      <c r="D251">
+        <v>1.934</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>0.369</v>
+      </c>
+      <c r="C252">
+        <v>0.325</v>
+      </c>
+      <c r="D252">
+        <v>0.42</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>0.345</v>
+      </c>
+      <c r="C253">
+        <v>0.287</v>
+      </c>
+      <c r="D253">
+        <v>0.415</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>0.748</v>
+      </c>
+      <c r="C254">
+        <v>0.654</v>
+      </c>
+      <c r="D254">
+        <v>0.855</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>0.614</v>
+      </c>
+      <c r="C255">
+        <v>0.515</v>
+      </c>
+      <c r="D255">
+        <v>0.732</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>0.222</v>
+      </c>
+      <c r="C256">
+        <v>0.135</v>
+      </c>
+      <c r="D256">
+        <v>0.363</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>0.155</v>
+      </c>
+      <c r="C257">
+        <v>0.078</v>
+      </c>
+      <c r="D257">
+        <v>0.307</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>0.637</v>
+      </c>
+      <c r="C258">
+        <v>0.364</v>
+      </c>
+      <c r="D258">
+        <v>1.115</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>0.475</v>
+      </c>
+      <c r="C259">
+        <v>0.22</v>
+      </c>
+      <c r="D259">
+        <v>1.024</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>0.844</v>
+      </c>
+      <c r="C260">
+        <v>0.695</v>
+      </c>
+      <c r="D260">
+        <v>1.025</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>0.776</v>
+      </c>
+      <c r="C261">
+        <v>0.596</v>
+      </c>
+      <c r="D261">
+        <v>1.011</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>0.185</v>
+      </c>
+      <c r="C262">
+        <v>0.08</v>
+      </c>
+      <c r="D262">
+        <v>0.429</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>0.061</v>
+      </c>
+      <c r="C263">
+        <v>0.014</v>
+      </c>
+      <c r="D263">
+        <v>0.261</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>0.887</v>
+      </c>
+      <c r="C264">
+        <v>0.853</v>
+      </c>
+      <c r="D264">
+        <v>0.922</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="C265">
+        <v>0.772</v>
+      </c>
+      <c r="D265">
+        <v>0.857</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>0.986</v>
+      </c>
+      <c r="C266">
+        <v>0.896</v>
+      </c>
+      <c r="D266">
+        <v>1.085</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>0.95</v>
+      </c>
+      <c r="C267">
+        <v>0.832</v>
+      </c>
+      <c r="D267">
+        <v>1.084</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>0.806</v>
+      </c>
+      <c r="C268">
+        <v>0.729</v>
+      </c>
+      <c r="D268">
+        <v>0.892</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>0.711</v>
+      </c>
+      <c r="C269">
+        <v>0.616</v>
+      </c>
+      <c r="D269">
+        <v>0.82</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>0.955</v>
+      </c>
+      <c r="C270">
+        <v>0.849</v>
+      </c>
+      <c r="D270">
+        <v>1.075</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>0.856</v>
+      </c>
+      <c r="C271">
+        <v>0.739</v>
+      </c>
+      <c r="D271">
+        <v>0.992</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>0.913</v>
+      </c>
+      <c r="C272">
+        <v>0.796</v>
+      </c>
+      <c r="D272">
+        <v>1.048</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>1.006</v>
+      </c>
+      <c r="C273">
+        <v>0.842</v>
+      </c>
+      <c r="D273">
+        <v>1.203</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>0.361</v>
+      </c>
+      <c r="C274">
+        <v>0.122</v>
+      </c>
+      <c r="D274">
+        <v>1.067</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>1.014</v>
+      </c>
+      <c r="C276">
+        <v>0.955</v>
+      </c>
+      <c r="D276">
+        <v>1.077</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>0.953</v>
+      </c>
+      <c r="C277">
+        <v>0.873</v>
+      </c>
+      <c r="D277">
+        <v>1.04</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>1.123</v>
+      </c>
+      <c r="C278">
+        <v>0.944</v>
+      </c>
+      <c r="D278">
+        <v>1.337</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>1.154</v>
+      </c>
+      <c r="C279">
+        <v>0.884</v>
+      </c>
+      <c r="D279">
+        <v>1.506</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>1.114</v>
+      </c>
+      <c r="C280">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D280">
+        <v>1.327</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>0.999</v>
+      </c>
+      <c r="C281">
+        <v>0.763</v>
+      </c>
+      <c r="D281">
+        <v>1.308</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>0.967</v>
+      </c>
+      <c r="C282">
+        <v>0.876</v>
+      </c>
+      <c r="D282">
+        <v>1.068</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>0.898</v>
+      </c>
+      <c r="C283">
+        <v>0.739</v>
+      </c>
+      <c r="D283">
+        <v>1.092</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>0.915</v>
+      </c>
+      <c r="C284">
+        <v>0.859</v>
+      </c>
+      <c r="D284">
+        <v>0.974</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>0.774</v>
+      </c>
+      <c r="C285">
+        <v>0.705</v>
+      </c>
+      <c r="D285">
+        <v>0.85</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>1.226</v>
+      </c>
+      <c r="C286">
+        <v>1.036</v>
+      </c>
+      <c r="D286">
+        <v>1.451</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>1.28</v>
+      </c>
+      <c r="C287">
+        <v>1.031</v>
+      </c>
+      <c r="D287">
+        <v>1.589</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>0.695</v>
+      </c>
+      <c r="C288">
+        <v>0.427</v>
+      </c>
+      <c r="D288">
+        <v>1.129</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>1.057</v>
+      </c>
+      <c r="C289">
+        <v>0.719</v>
+      </c>
+      <c r="D289">
+        <v>1.555</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>2.297</v>
+      </c>
+      <c r="C290">
+        <v>2.198</v>
+      </c>
+      <c r="D290">
+        <v>2.401</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>2.405</v>
+      </c>
+      <c r="C291">
+        <v>2.277</v>
+      </c>
+      <c r="D291">
+        <v>2.54</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>0.946</v>
+      </c>
+      <c r="C292">
+        <v>0.895</v>
+      </c>
+      <c r="D292">
+        <v>1.001</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>0.968</v>
+      </c>
+      <c r="C293">
+        <v>0.897</v>
+      </c>
+      <c r="D293">
+        <v>1.045</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>0.881</v>
+      </c>
+      <c r="C294">
+        <v>0.827</v>
+      </c>
+      <c r="D294">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="C295">
+        <v>0.733</v>
+      </c>
+      <c r="D295">
+        <v>0.9</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>0.952</v>
+      </c>
+      <c r="C296">
+        <v>0.89</v>
+      </c>
+      <c r="D296">
+        <v>1.018</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>0.988</v>
+      </c>
+      <c r="C297">
+        <v>0.905</v>
+      </c>
+      <c r="D297">
+        <v>1.078</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>1.045</v>
+      </c>
+      <c r="C298">
+        <v>0.919</v>
+      </c>
+      <c r="D298">
+        <v>1.188</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>1.02</v>
+      </c>
+      <c r="C299">
+        <v>0.868</v>
+      </c>
+      <c r="D299">
+        <v>1.199</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>0.372</v>
+      </c>
+      <c r="C300">
+        <v>0.278</v>
+      </c>
+      <c r="D300">
+        <v>0.499</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>0.092</v>
+      </c>
+      <c r="C301">
+        <v>0.051</v>
+      </c>
+      <c r="D301">
+        <v>0.166</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>0.978</v>
+      </c>
+      <c r="C302">
+        <v>0.91</v>
+      </c>
+      <c r="D302">
+        <v>1.05</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>1.003</v>
+      </c>
+      <c r="C303">
+        <v>0.889</v>
+      </c>
+      <c r="D303">
+        <v>1.131</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>0.999</v>
+      </c>
+      <c r="C304">
+        <v>0.926</v>
+      </c>
+      <c r="D304">
+        <v>1.078</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>0.967</v>
+      </c>
+      <c r="C305">
+        <v>0.828</v>
+      </c>
+      <c r="D305">
+        <v>1.129</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>arb_vs_acei</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>1.302</v>
+      </c>
+      <c r="C306">
+        <v>1.211</v>
+      </c>
+      <c r="D306">
+        <v>1.399</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>1.567</v>
+      </c>
+      <c r="C307">
+        <v>1.382</v>
+      </c>
+      <c r="D307">
+        <v>1.777</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>0.865</v>
+      </c>
+      <c r="C308">
+        <v>0.793</v>
+      </c>
+      <c r="D308">
+        <v>0.944</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B309">
+        <v>1.137</v>
+      </c>
+      <c r="C309">
+        <v>0.986</v>
+      </c>
+      <c r="D309">
+        <v>1.311</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B310">
+        <v>0.949</v>
+      </c>
+      <c r="C310">
+        <v>0.802</v>
+      </c>
+      <c r="D310">
+        <v>1.123</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B311">
+        <v>1.191</v>
+      </c>
+      <c r="C311">
+        <v>0.847</v>
+      </c>
+      <c r="D311">
+        <v>1.675</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>1.73</v>
+      </c>
+      <c r="C312">
+        <v>1.135</v>
+      </c>
+      <c r="D312">
+        <v>2.635</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>2.222</v>
+      </c>
+      <c r="C313">
+        <v>1.035</v>
+      </c>
+      <c r="D313">
+        <v>4.768</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>0.556</v>
+      </c>
+      <c r="C314">
+        <v>0.529</v>
+      </c>
+      <c r="D314">
+        <v>0.584</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="C315">
+        <v>0.526</v>
+      </c>
+      <c r="D315">
+        <v>0.604</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>0.918</v>
+      </c>
+      <c r="C316">
+        <v>0.883</v>
+      </c>
+      <c r="D316">
+        <v>0.954</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>1.019</v>
+      </c>
+      <c r="C317">
+        <v>0.964</v>
+      </c>
+      <c r="D317">
+        <v>1.076</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>2.492</v>
+      </c>
+      <c r="C318">
+        <v>2.341</v>
+      </c>
+      <c r="D318">
+        <v>2.652</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>3.41</v>
+      </c>
+      <c r="C319">
+        <v>3.126</v>
+      </c>
+      <c r="D319">
+        <v>3.72</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>0.885</v>
+      </c>
+      <c r="C320">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="D320">
+        <v>0.969</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B321">
+        <v>1.027</v>
+      </c>
+      <c r="C321">
+        <v>0.893</v>
+      </c>
+      <c r="D321">
+        <v>1.182</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="C322">
+        <v>0.863</v>
+      </c>
+      <c r="D322">
+        <v>1.012</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>1.183</v>
+      </c>
+      <c r="C323">
+        <v>1.044</v>
+      </c>
+      <c r="D323">
+        <v>1.34</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>0.849</v>
+      </c>
+      <c r="C324">
+        <v>0.769</v>
+      </c>
+      <c r="D324">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B325">
+        <v>1.256</v>
+      </c>
+      <c r="C325">
+        <v>1.054</v>
+      </c>
+      <c r="D325">
+        <v>1.498</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B326">
+        <v>1.24</v>
+      </c>
+      <c r="C326">
+        <v>0.77</v>
+      </c>
+      <c r="D326">
+        <v>1.996</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B327">
+        <v>1.435</v>
+      </c>
+      <c r="C327">
+        <v>0.78</v>
+      </c>
+      <c r="D327">
+        <v>2.641</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B328">
+        <v>0.805</v>
+      </c>
+      <c r="C328">
+        <v>0.732</v>
+      </c>
+      <c r="D328">
+        <v>0.886</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B329">
+        <v>0.92</v>
+      </c>
+      <c r="C329">
+        <v>0.759</v>
+      </c>
+      <c r="D329">
+        <v>1.114</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B330">
+        <v>0.647</v>
+      </c>
+      <c r="C330">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D330">
+        <v>0.743</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B331">
+        <v>0.779</v>
+      </c>
+      <c r="C331">
+        <v>0.603</v>
+      </c>
+      <c r="D331">
+        <v>1.007</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>snri_vs_ssri</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B332">
+        <v>0.612</v>
+      </c>
+      <c r="C332">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="D332">
+        <v>0.671</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B333">
+        <v>0.598</v>
+      </c>
+      <c r="C333">
+        <v>0.521</v>
+      </c>
+      <c r="D333">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B334">
+        <v>0.837</v>
+      </c>
+      <c r="C334">
+        <v>0.743</v>
+      </c>
+      <c r="D334">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B335">
+        <v>0.715</v>
+      </c>
+      <c r="C335">
+        <v>0.611</v>
+      </c>
+      <c r="D335">
+        <v>0.836</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B336">
+        <v>0.355</v>
+      </c>
+      <c r="C336">
+        <v>0.252</v>
+      </c>
+      <c r="D336">
+        <v>0.501</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B337">
+        <v>0.277</v>
+      </c>
+      <c r="C337">
+        <v>0.179</v>
+      </c>
+      <c r="D337">
+        <v>0.429</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B338">
+        <v>0.947</v>
+      </c>
+      <c r="C338">
+        <v>0.585</v>
+      </c>
+      <c r="D338">
+        <v>1.535</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B339">
+        <v>0.612</v>
+      </c>
+      <c r="C339">
+        <v>0.317</v>
+      </c>
+      <c r="D339">
+        <v>1.181</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B340">
+        <v>0.838</v>
+      </c>
+      <c r="C340">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="D340">
+        <v>1.014</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B341">
+        <v>0.628</v>
+      </c>
+      <c r="C341">
+        <v>0.477</v>
+      </c>
+      <c r="D341">
+        <v>0.826</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B342">
+        <v>0.467</v>
+      </c>
+      <c r="C342">
+        <v>0.269</v>
+      </c>
+      <c r="D342">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B343">
+        <v>0.435</v>
+      </c>
+      <c r="C343">
+        <v>0.214</v>
+      </c>
+      <c r="D343">
+        <v>0.881</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B344">
+        <v>0.903</v>
+      </c>
+      <c r="C344">
+        <v>0.87</v>
+      </c>
+      <c r="D344">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B345">
+        <v>0.844</v>
+      </c>
+      <c r="C345">
+        <v>0.804</v>
+      </c>
+      <c r="D345">
+        <v>0.887</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B346">
+        <v>0.948</v>
+      </c>
+      <c r="C346">
+        <v>0.861</v>
+      </c>
+      <c r="D346">
+        <v>1.044</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B347">
+        <v>0.899</v>
+      </c>
+      <c r="C347">
+        <v>0.785</v>
+      </c>
+      <c r="D347">
+        <v>1.031</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B348">
+        <v>0.829</v>
+      </c>
+      <c r="C348">
+        <v>0.754</v>
+      </c>
+      <c r="D348">
+        <v>0.911</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B349">
+        <v>0.781</v>
+      </c>
+      <c r="C349">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="D349">
+        <v>0.892</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B350">
+        <v>1.013</v>
+      </c>
+      <c r="C350">
+        <v>0.909</v>
+      </c>
+      <c r="D350">
+        <v>1.13</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B351">
+        <v>0.953</v>
+      </c>
+      <c r="C351">
+        <v>0.831</v>
+      </c>
+      <c r="D351">
+        <v>1.092</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B352">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="C352">
+        <v>0.708</v>
+      </c>
+      <c r="D352">
+        <v>0.922</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B353">
+        <v>0.715</v>
+      </c>
+      <c r="C353">
+        <v>0.601</v>
+      </c>
+      <c r="D353">
+        <v>0.852</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B354">
+        <v>0.912</v>
+      </c>
+      <c r="C354">
+        <v>0.429</v>
+      </c>
+      <c r="D354">
+        <v>1.939</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B355">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="C355">
+        <v>0.328</v>
+      </c>
+      <c r="D355">
+        <v>2.028</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B356">
+        <v>0.986</v>
+      </c>
+      <c r="C356">
+        <v>0.93</v>
+      </c>
+      <c r="D356">
+        <v>1.046</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B357">
+        <v>0.944</v>
+      </c>
+      <c r="C357">
+        <v>0.866</v>
+      </c>
+      <c r="D357">
+        <v>1.029</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B358">
+        <v>1.16</v>
+      </c>
+      <c r="C358">
+        <v>0.978</v>
+      </c>
+      <c r="D358">
+        <v>1.376</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B359">
+        <v>1.125</v>
+      </c>
+      <c r="C359">
+        <v>0.863</v>
+      </c>
+      <c r="D359">
+        <v>1.467</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B360">
+        <v>1.074</v>
+      </c>
+      <c r="C360">
+        <v>0.908</v>
+      </c>
+      <c r="D360">
+        <v>1.271</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B361">
+        <v>1.104</v>
+      </c>
+      <c r="C361">
+        <v>0.85</v>
+      </c>
+      <c r="D361">
+        <v>1.432</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>su_vs_dpp4</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B362">
+        <v>0.526</v>
+      </c>
+      <c r="C362">
+        <v>0.369</v>
+      </c>
+      <c r="D362">
+        <v>0.749</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>0.375</v>
+      </c>
+      <c r="C363">
+        <v>0.23</v>
+      </c>
+      <c r="D363">
+        <v>0.61</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B364">
+        <v>0.829</v>
+      </c>
+      <c r="C364">
+        <v>0.597</v>
+      </c>
+      <c r="D364">
+        <v>1.152</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B365">
+        <v>0.702</v>
+      </c>
+      <c r="C365">
+        <v>0.431</v>
+      </c>
+      <c r="D365">
+        <v>1.142</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B366">
+        <v>0.416</v>
+      </c>
+      <c r="C366">
+        <v>0.14</v>
+      </c>
+      <c r="D366">
+        <v>1.231</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B367">
+        <v>0.19</v>
+      </c>
+      <c r="C367">
+        <v>0.036</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B368">
+        <v>1.601</v>
+      </c>
+      <c r="C368">
+        <v>0.738</v>
+      </c>
+      <c r="D368">
+        <v>3.473</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B369">
+        <v>0.839</v>
+      </c>
+      <c r="C369">
+        <v>0.279</v>
+      </c>
+      <c r="D369">
+        <v>2.523</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B370">
+        <v>1.181</v>
+      </c>
+      <c r="C370">
+        <v>0.715</v>
+      </c>
+      <c r="D370">
+        <v>1.951</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B371">
+        <v>0.614</v>
+      </c>
+      <c r="C371">
+        <v>0.29</v>
+      </c>
+      <c r="D371">
+        <v>1.299</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B372">
+        <v>0.291</v>
+      </c>
+      <c r="C372">
+        <v>0.064</v>
+      </c>
+      <c r="D372">
+        <v>1.328</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B373">
+        <v>0.27</v>
+      </c>
+      <c r="C373">
+        <v>0.034</v>
+      </c>
+      <c r="D373">
+        <v>2.13</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B374">
+        <v>0.998</v>
+      </c>
+      <c r="C374">
+        <v>0.919</v>
+      </c>
+      <c r="D374">
+        <v>1.083</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B375">
+        <v>0.879</v>
+      </c>
+      <c r="C375">
+        <v>0.792</v>
+      </c>
+      <c r="D375">
+        <v>0.976</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B376">
+        <v>1.143</v>
+      </c>
+      <c r="C376">
+        <v>0.981</v>
+      </c>
+      <c r="D376">
+        <v>1.331</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B377">
+        <v>0.927</v>
+      </c>
+      <c r="C377">
+        <v>0.753</v>
+      </c>
+      <c r="D377">
+        <v>1.14</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B378">
+        <v>0.894</v>
+      </c>
+      <c r="C378">
+        <v>0.704</v>
+      </c>
+      <c r="D378">
+        <v>1.135</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B379">
+        <v>0.863</v>
+      </c>
+      <c r="C379">
+        <v>0.641</v>
+      </c>
+      <c r="D379">
+        <v>1.162</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B380">
+        <v>0.855</v>
+      </c>
+      <c r="C380">
+        <v>0.679</v>
+      </c>
+      <c r="D380">
+        <v>1.078</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B381">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="C381">
+        <v>0.52</v>
+      </c>
+      <c r="D381">
+        <v>0.924</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B382">
+        <v>0.999</v>
+      </c>
+      <c r="C382">
+        <v>0.698</v>
+      </c>
+      <c r="D382">
+        <v>1.431</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B383">
+        <v>0.775</v>
+      </c>
+      <c r="C383">
+        <v>0.442</v>
+      </c>
+      <c r="D383">
+        <v>1.358</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B384">
+        <v>0.424</v>
+      </c>
+      <c r="C384">
+        <v>0.055</v>
+      </c>
+      <c r="D384">
+        <v>3.259</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B386">
+        <v>1.053</v>
+      </c>
+      <c r="C386">
+        <v>0.924</v>
+      </c>
+      <c r="D386">
+        <v>1.201</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B387">
+        <v>0.954</v>
+      </c>
+      <c r="C387">
+        <v>0.801</v>
+      </c>
+      <c r="D387">
+        <v>1.137</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B388">
+        <v>1.069</v>
+      </c>
+      <c r="C388">
+        <v>0.798</v>
+      </c>
+      <c r="D388">
+        <v>1.433</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B389">
+        <v>0.973</v>
+      </c>
+      <c r="C389">
+        <v>0.653</v>
+      </c>
+      <c r="D389">
+        <v>1.448</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B390">
+        <v>1.226</v>
+      </c>
+      <c r="C390">
+        <v>0.862</v>
+      </c>
+      <c r="D390">
+        <v>1.743</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B391">
+        <v>1.205</v>
+      </c>
+      <c r="C391">
+        <v>0.751</v>
+      </c>
+      <c r="D391">
+        <v>1.934</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>su_vs_glp1</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B392">
+        <v>0.369</v>
+      </c>
+      <c r="C392">
+        <v>0.325</v>
+      </c>
+      <c r="D392">
+        <v>0.42</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B393">
+        <v>0.345</v>
+      </c>
+      <c r="C393">
+        <v>0.287</v>
+      </c>
+      <c r="D393">
+        <v>0.415</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B394">
+        <v>0.748</v>
+      </c>
+      <c r="C394">
+        <v>0.654</v>
+      </c>
+      <c r="D394">
+        <v>0.855</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B395">
+        <v>0.614</v>
+      </c>
+      <c r="C395">
+        <v>0.515</v>
+      </c>
+      <c r="D395">
+        <v>0.732</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B396">
+        <v>0.222</v>
+      </c>
+      <c r="C396">
+        <v>0.135</v>
+      </c>
+      <c r="D396">
+        <v>0.363</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B397">
+        <v>0.155</v>
+      </c>
+      <c r="C397">
+        <v>0.078</v>
+      </c>
+      <c r="D397">
+        <v>0.307</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>hypoglycemia_hosp</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B398">
+        <v>0.637</v>
+      </c>
+      <c r="C398">
+        <v>0.364</v>
+      </c>
+      <c r="D398">
+        <v>1.115</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B399">
+        <v>0.475</v>
+      </c>
+      <c r="C399">
+        <v>0.22</v>
+      </c>
+      <c r="D399">
+        <v>1.024</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>amputation</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B400">
+        <v>0.844</v>
+      </c>
+      <c r="C400">
+        <v>0.695</v>
+      </c>
+      <c r="D400">
+        <v>1.025</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B401">
+        <v>0.776</v>
+      </c>
+      <c r="C401">
+        <v>0.596</v>
+      </c>
+      <c r="D401">
+        <v>1.011</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B402">
+        <v>0.185</v>
+      </c>
+      <c r="C402">
+        <v>0.08</v>
+      </c>
+      <c r="D402">
+        <v>0.429</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B403">
+        <v>0.061</v>
+      </c>
+      <c r="C403">
+        <v>0.014</v>
+      </c>
+      <c r="D403">
+        <v>0.261</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>copd_exacerbation</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B404">
+        <v>0.887</v>
+      </c>
+      <c r="C404">
+        <v>0.853</v>
+      </c>
+      <c r="D404">
+        <v>0.922</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B405">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="C405">
+        <v>0.772</v>
+      </c>
+      <c r="D405">
+        <v>0.857</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B406">
+        <v>0.986</v>
+      </c>
+      <c r="C406">
+        <v>0.896</v>
+      </c>
+      <c r="D406">
+        <v>1.085</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B407">
+        <v>0.95</v>
+      </c>
+      <c r="C407">
+        <v>0.832</v>
+      </c>
+      <c r="D407">
+        <v>1.084</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B408">
+        <v>0.806</v>
+      </c>
+      <c r="C408">
+        <v>0.729</v>
+      </c>
+      <c r="D408">
+        <v>0.892</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B409">
+        <v>0.711</v>
+      </c>
+      <c r="C409">
+        <v>0.616</v>
+      </c>
+      <c r="D409">
+        <v>0.82</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>hyperlipidemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B410">
+        <v>0.955</v>
+      </c>
+      <c r="C410">
+        <v>0.849</v>
+      </c>
+      <c r="D410">
+        <v>1.075</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B411">
+        <v>0.856</v>
+      </c>
+      <c r="C411">
+        <v>0.739</v>
+      </c>
+      <c r="D411">
+        <v>0.992</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>copd</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B412">
+        <v>0.913</v>
+      </c>
+      <c r="C412">
+        <v>0.796</v>
+      </c>
+      <c r="D412">
+        <v>1.048</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B413">
+        <v>1.006</v>
+      </c>
+      <c r="C413">
+        <v>0.842</v>
+      </c>
+      <c r="D413">
+        <v>1.203</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>chf</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B414">
+        <v>0.361</v>
+      </c>
+      <c r="C414">
+        <v>0.122</v>
+      </c>
+      <c r="D414">
+        <v>1.067</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>end_stage_renal</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B416">
+        <v>1.014</v>
+      </c>
+      <c r="C416">
+        <v>0.955</v>
+      </c>
+      <c r="D416">
+        <v>1.077</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B417">
+        <v>0.953</v>
+      </c>
+      <c r="C417">
+        <v>0.873</v>
+      </c>
+      <c r="D417">
+        <v>1.04</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>retinopathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B418">
+        <v>1.123</v>
+      </c>
+      <c r="C418">
+        <v>0.944</v>
+      </c>
+      <c r="D418">
+        <v>1.337</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B419">
+        <v>1.154</v>
+      </c>
+      <c r="C419">
+        <v>0.884</v>
+      </c>
+      <c r="D419">
+        <v>1.506</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>breast_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="B420">
+        <v>1.114</v>
+      </c>
+      <c r="C420">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D420">
+        <v>1.327</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B421">
+        <v>0.999</v>
+      </c>
+      <c r="C421">
+        <v>0.763</v>
+      </c>
+      <c r="D421">
+        <v>1.308</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>cprd</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>su_vs_sglt2</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>colon_cancer_screen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
